--- a/data/trans_orig/P16A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12569</v>
+        <v>12083</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30445</v>
+        <v>30784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04138232745866629</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02652902676270665</v>
+        <v>0.02550376701902775</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06426019856614858</v>
+        <v>0.06497687430031493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -765,19 +765,19 @@
         <v>22231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14986</v>
+        <v>14237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34136</v>
+        <v>32613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07248814802280167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04886464529642377</v>
+        <v>0.04642139276225163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1113080814508557</v>
+        <v>0.1063425786747322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -786,19 +786,19 @@
         <v>41837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29172</v>
+        <v>30158</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55442</v>
+        <v>56088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05360535471343315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03737755710200592</v>
+        <v>0.03864142796654864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07103846122101629</v>
+        <v>0.07186611695134851</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>454170</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443331</v>
+        <v>442992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>461207</v>
+        <v>461693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9586176725413337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9357398014338514</v>
+        <v>0.935023125699685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9734709732372934</v>
+        <v>0.9744962329809723</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -836,19 +836,19 @@
         <v>284449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272544</v>
+        <v>274067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>291694</v>
+        <v>292443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9275118519771983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8886919185491443</v>
+        <v>0.893657421325268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9511353547035765</v>
+        <v>0.9535786072377483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>712</v>
@@ -857,19 +857,19 @@
         <v>738620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>725015</v>
+        <v>724369</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>751285</v>
+        <v>750299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9463946452865668</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9289615387789839</v>
+        <v>0.9281338830486516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9626224428979944</v>
+        <v>0.9613585720334514</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9165</v>
+        <v>8991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24966</v>
+        <v>25240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0434335562192695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02497775965592791</v>
+        <v>0.02450226833332646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06804044164574723</v>
+        <v>0.06878634169567041</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -982,19 +982,19 @@
         <v>33245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23346</v>
+        <v>24141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44935</v>
+        <v>45587</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08939961517884239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06278160134035374</v>
+        <v>0.06491779984127248</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.12083749055208</v>
+        <v>0.1225902026160165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -1003,19 +1003,19 @@
         <v>49182</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36068</v>
+        <v>37402</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64442</v>
+        <v>66041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06656997384994445</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04881923639163968</v>
+        <v>0.05062519253744534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08722595792617359</v>
+        <v>0.08939031775845188</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>350997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>341968</v>
+        <v>341694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>357769</v>
+        <v>357943</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9565664437807305</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.931959558354253</v>
+        <v>0.9312136583043296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9750222403440721</v>
+        <v>0.9754977316666732</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>331</v>
@@ -1053,19 +1053,19 @@
         <v>338620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326930</v>
+        <v>326278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348519</v>
+        <v>347724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9106003848211576</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8791625094479202</v>
+        <v>0.8774097973839837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9372183986596465</v>
+        <v>0.9350822001587276</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>666</v>
@@ -1074,19 +1074,19 @@
         <v>689617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>674357</v>
+        <v>672758</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>702731</v>
+        <v>701397</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9334300261500555</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9127740420738265</v>
+        <v>0.910609682241548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9511807636083605</v>
+        <v>0.9493748074625546</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>28343</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20181</v>
+        <v>19943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39153</v>
+        <v>40364</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0522555035476394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03720700671895154</v>
+        <v>0.03676945892105137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07218640460290654</v>
+        <v>0.07441878536245841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>21307</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13923</v>
+        <v>13630</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30841</v>
+        <v>31196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.126990932949318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08298206707307004</v>
+        <v>0.08123753844447534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1838144727159159</v>
+        <v>0.1859342958459302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1220,19 +1220,19 @@
         <v>49650</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38272</v>
+        <v>38271</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64105</v>
+        <v>65915</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06991217057135693</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05389174819023886</v>
+        <v>0.05389051328928834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09026641873082425</v>
+        <v>0.09281507826017452</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>514046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503236</v>
+        <v>502025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>522208</v>
+        <v>522446</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9477444964523606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9278135953970936</v>
+        <v>0.9255812146375417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9627929932810485</v>
+        <v>0.9632305410789486</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -1270,19 +1270,19 @@
         <v>146475</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136941</v>
+        <v>136586</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153859</v>
+        <v>154152</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.873009067050682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8161855272840842</v>
+        <v>0.8140657041540699</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.91701793292693</v>
+        <v>0.9187624615555248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>645</v>
@@ -1291,19 +1291,19 @@
         <v>660521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>646066</v>
+        <v>644256</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>671899</v>
+        <v>671900</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9300878294286431</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9097335812691754</v>
+        <v>0.9071849217398258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9461082518097612</v>
+        <v>0.9461094867107117</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>60908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47453</v>
+        <v>48288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76916</v>
+        <v>77112</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04918549043490644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03832000331609717</v>
+        <v>0.03899408565385858</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06211285989901296</v>
+        <v>0.06227111822997321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -1416,19 +1416,19 @@
         <v>70291</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54865</v>
+        <v>54075</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85577</v>
+        <v>87431</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09840775584341935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07681052626873802</v>
+        <v>0.07570440605478874</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1198083859663622</v>
+        <v>0.1224033036424227</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -1437,19 +1437,19 @@
         <v>131199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110759</v>
+        <v>110444</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>153131</v>
+        <v>153856</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0671914244877467</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05672348539253917</v>
+        <v>0.05656199487413083</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07842354789388535</v>
+        <v>0.07879480648466682</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1177426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1161418</v>
+        <v>1161222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1190881</v>
+        <v>1190046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9508145095650936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9378871401009871</v>
+        <v>0.9377288817700269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9616799966839028</v>
+        <v>0.9610059143461416</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>624</v>
@@ -1487,19 +1487,19 @@
         <v>643994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>628708</v>
+        <v>626854</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>659420</v>
+        <v>660210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9015922441565807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8801916140336378</v>
+        <v>0.8775966963575772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9231894737312619</v>
+        <v>0.924295593945211</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1785</v>
@@ -1508,19 +1508,19 @@
         <v>1821421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1799489</v>
+        <v>1798764</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1841861</v>
+        <v>1842176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9328085755122533</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9215764521061148</v>
+        <v>0.9212051935153331</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9432765146074609</v>
+        <v>0.9434380051258692</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>25893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17289</v>
+        <v>18024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36923</v>
+        <v>36123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07386274827668979</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04931921999126309</v>
+        <v>0.05141655256725246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.105327642456373</v>
+        <v>0.1030449845081521</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -1633,19 +1633,19 @@
         <v>74752</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58996</v>
+        <v>59275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91920</v>
+        <v>92752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1314320500359935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1037285921440071</v>
+        <v>0.1042187075503111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1616178038281126</v>
+        <v>0.1630803512108002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -1654,19 +1654,19 @@
         <v>100645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84082</v>
+        <v>82163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119769</v>
+        <v>119629</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.109479405623726</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09146259919655175</v>
+        <v>0.08937512637758879</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1302816211858606</v>
+        <v>0.1301293090869839</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>324662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>313632</v>
+        <v>314432</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333266</v>
+        <v>332531</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9261372517233102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.894672357543627</v>
+        <v>0.896955015491848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.950680780008737</v>
+        <v>0.9485834474327476</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>466</v>
@@ -1704,19 +1704,19 @@
         <v>494000</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>476832</v>
+        <v>476000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>509756</v>
+        <v>509477</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8685679499640064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8383821961718874</v>
+        <v>0.8369196487891998</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8962714078559929</v>
+        <v>0.8957812924496888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>780</v>
@@ -1725,19 +1725,19 @@
         <v>818662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>799538</v>
+        <v>799678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>835225</v>
+        <v>837144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.890520594376274</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8697183788141394</v>
+        <v>0.8698706909130161</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9085374008034482</v>
+        <v>0.9106248736224112</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>10338</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5301</v>
+        <v>4875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18629</v>
+        <v>17601</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03466860062804104</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01777493914580518</v>
+        <v>0.01634908933754504</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06247036049911468</v>
+        <v>0.05902318572422122</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>148</v>
@@ -1850,19 +1850,19 @@
         <v>153909</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>131347</v>
+        <v>132806</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>177526</v>
+        <v>179037</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1232490632626319</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1051818075154732</v>
+        <v>0.1063505148865704</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1421621494701903</v>
+        <v>0.1433714719331677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -1871,19 +1871,19 @@
         <v>164247</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142252</v>
+        <v>140848</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188882</v>
+        <v>190045</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1061738084785452</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09195556464250908</v>
+        <v>0.09104811834398113</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1220985337793346</v>
+        <v>0.1228504027625389</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>287863</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279572</v>
+        <v>280600</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292900</v>
+        <v>293326</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.965331399371959</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9375296395008857</v>
+        <v>0.9409768142757789</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9822250608541949</v>
+        <v>0.9836509106624551</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1090</v>
@@ -1921,19 +1921,19 @@
         <v>1094851</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1071234</v>
+        <v>1069723</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1117413</v>
+        <v>1115954</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8767509367373681</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8578378505298102</v>
+        <v>0.8566285280668323</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.894818192484527</v>
+        <v>0.8936494851134297</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1386</v>
@@ -1942,19 +1942,19 @@
         <v>1382713</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1358078</v>
+        <v>1356915</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1404708</v>
+        <v>1406112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8938261915214548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8779014662206653</v>
+        <v>0.8771495972374609</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9080444353574909</v>
+        <v>0.9089518816560187</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>161025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134026</v>
+        <v>139509</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185305</v>
+        <v>187745</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04924035076480627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04098405211224936</v>
+        <v>0.04266075384429357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05666480353113138</v>
+        <v>0.05741105338687474</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>366</v>
@@ -2067,19 +2067,19 @@
         <v>375734</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>340335</v>
+        <v>341237</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>416655</v>
+        <v>415208</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1112256233949963</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.100746690285043</v>
+        <v>0.1010138689536738</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1233392294544069</v>
+        <v>0.1229109577352773</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>529</v>
@@ -2088,19 +2088,19 @@
         <v>536759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>491613</v>
+        <v>494022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>581459</v>
+        <v>582345</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08073614620807679</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07394551148599338</v>
+        <v>0.07430792052938115</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08745958737150095</v>
+        <v>0.08759283284141078</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3109165</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3084885</v>
+        <v>3082445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3136164</v>
+        <v>3130681</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9507596492351937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9433351964688687</v>
+        <v>0.9425889466131248</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9590159478877506</v>
+        <v>0.9573392461557063</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2930</v>
@@ -2138,19 +2138,19 @@
         <v>3002390</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2961469</v>
+        <v>2962916</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3037789</v>
+        <v>3036887</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8887743766050037</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8766607705455932</v>
+        <v>0.8770890422647227</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.899253309714957</v>
+        <v>0.8989861310463262</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5974</v>
@@ -2159,19 +2159,19 @@
         <v>6111555</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6066855</v>
+        <v>6065969</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6156701</v>
+        <v>6154292</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9192638537919232</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9125404126284992</v>
+        <v>0.9124071671585893</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9260544885140066</v>
+        <v>0.9256920794706189</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>21204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12799</v>
+        <v>12742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34851</v>
+        <v>33377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04849847420769018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02927398967668369</v>
+        <v>0.02914288762270544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07971154947708746</v>
+        <v>0.0763396401842758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2526,19 +2526,19 @@
         <v>23486</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14729</v>
+        <v>15105</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34868</v>
+        <v>37087</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07468741061570729</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04684060685311937</v>
+        <v>0.04803544817934761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1108855173623187</v>
+        <v>0.1179396545865106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2547,19 +2547,19 @@
         <v>44690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32316</v>
+        <v>31622</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60010</v>
+        <v>59487</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05945444807701912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04299302472600192</v>
+        <v>0.04206947183929883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07983593347711443</v>
+        <v>0.07913989090828245</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>416007</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402360</v>
+        <v>403834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424412</v>
+        <v>424469</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9515015257923098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9202884505229125</v>
+        <v>0.9236603598157239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9707260103233162</v>
+        <v>0.970857112377294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -2597,19 +2597,19 @@
         <v>290968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279586</v>
+        <v>277367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299725</v>
+        <v>299349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9253125893842927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8891144826376821</v>
+        <v>0.8820603454134895</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9531593931468807</v>
+        <v>0.9519645518206525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>648</v>
@@ -2618,19 +2618,19 @@
         <v>706975</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>691655</v>
+        <v>692178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>719349</v>
+        <v>720043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9405455519229808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9201640665228856</v>
+        <v>0.9208601090917171</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.957006975273998</v>
+        <v>0.9579305281607005</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>22970</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13885</v>
+        <v>13607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37337</v>
+        <v>36812</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05484709283306573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03315432342278656</v>
+        <v>0.03249094894174018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08915215601621902</v>
+        <v>0.08789834164756131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>30138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20792</v>
+        <v>20192</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42463</v>
+        <v>42046</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08916284850584109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06151240513075603</v>
+        <v>0.05973714293085193</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1256260351122863</v>
+        <v>0.1243931559347468</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -2764,19 +2764,19 @@
         <v>53108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38425</v>
+        <v>39959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68535</v>
+        <v>71685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07017344431094744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05077180104407078</v>
+        <v>0.05279873439161797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09055783357010586</v>
+        <v>0.09472028640596078</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>395827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>381460</v>
+        <v>381985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>404912</v>
+        <v>405190</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9451529071669342</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.91084784398378</v>
+        <v>0.9121016583524387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9668456765772134</v>
+        <v>0.9675090510582599</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>277</v>
@@ -2814,19 +2814,19 @@
         <v>307873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>295548</v>
+        <v>295965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317219</v>
+        <v>317819</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9108371514941589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8743739648877137</v>
+        <v>0.8756068440652522</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9384875948692439</v>
+        <v>0.940262857069148</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>634</v>
@@ -2835,19 +2835,19 @@
         <v>703700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>688273</v>
+        <v>685123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>718383</v>
+        <v>716849</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9298265556890526</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9094421664298943</v>
+        <v>0.9052797135940394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9492281989559294</v>
+        <v>0.9472012656083821</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>63186</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49074</v>
+        <v>50242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81125</v>
+        <v>81317</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1003889622473872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0779678498174011</v>
+        <v>0.07982384243033888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1288890951767973</v>
+        <v>0.1291947882333483</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -2960,19 +2960,19 @@
         <v>46630</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35843</v>
+        <v>34828</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61180</v>
+        <v>59204</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1792571043645461</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1377894376214403</v>
+        <v>0.1338890395043751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2351899085569509</v>
+        <v>0.2275929314973303</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -2981,19 +2981,19 @@
         <v>109816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90569</v>
+        <v>90102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133651</v>
+        <v>131317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1234523734946727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.101814703905714</v>
+        <v>0.1012898134296912</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1502463176482624</v>
+        <v>0.1476227428877085</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>566229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>548290</v>
+        <v>548098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>580341</v>
+        <v>579173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8996110377526129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8711109048232022</v>
+        <v>0.8708052117666517</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9220321501825989</v>
+        <v>0.9201761575696612</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>199</v>
@@ -3031,19 +3031,19 @@
         <v>213499</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>198949</v>
+        <v>200925</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>224286</v>
+        <v>225301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8207428956354539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7648100914430492</v>
+        <v>0.7724070685026697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8622105623785599</v>
+        <v>0.8661109604956249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>734</v>
@@ -3052,19 +3052,19 @@
         <v>779728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>755893</v>
+        <v>758227</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>798975</v>
+        <v>799442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8765476265053272</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8497536823517374</v>
+        <v>0.8523772571122915</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.898185296094286</v>
+        <v>0.8987101865703088</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>81129</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63876</v>
+        <v>66026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101527</v>
+        <v>101125</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06999896120101869</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05511296225978292</v>
+        <v>0.05696730004834224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08759783879487355</v>
+        <v>0.0872516133879202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -3177,19 +3177,19 @@
         <v>104734</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84686</v>
+        <v>86455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124600</v>
+        <v>124624</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1366114379702514</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1104616569684556</v>
+        <v>0.112769027649449</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1625237213631754</v>
+        <v>0.162554753725184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -3198,19 +3198,19 @@
         <v>185864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161564</v>
+        <v>160934</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>213676</v>
+        <v>213212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09651910161874099</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0839000855563205</v>
+        <v>0.08357324884661385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1109621661062249</v>
+        <v>0.1107211095170173</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1077880</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1057482</v>
+        <v>1057884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1095133</v>
+        <v>1092983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9300010387989813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9124021612051264</v>
+        <v>0.9127483866120798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9448870377402171</v>
+        <v>0.9430326999516578</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>615</v>
@@ -3248,19 +3248,19 @@
         <v>661923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>642057</v>
+        <v>642033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681971</v>
+        <v>680202</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8633885620297486</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8374762786368247</v>
+        <v>0.8374452462748159</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8895383430315444</v>
+        <v>0.887230972350551</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1625</v>
@@ -3269,19 +3269,19 @@
         <v>1739803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1711991</v>
+        <v>1712455</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1764103</v>
+        <v>1764733</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.903480898381259</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8890378338937751</v>
+        <v>0.8892788904829828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9160999144436794</v>
+        <v>0.9164267511533861</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>30461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21296</v>
+        <v>21095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43566</v>
+        <v>41903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05965733598981587</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04170748890072642</v>
+        <v>0.04131404594108096</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08532349158613002</v>
+        <v>0.08206619935915904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -3394,19 +3394,19 @@
         <v>151692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>128206</v>
+        <v>131135</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>174691</v>
+        <v>177427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.199195994257387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1683554514859324</v>
+        <v>0.1722017212467507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2293974749590384</v>
+        <v>0.2329896746553051</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>172</v>
@@ -3415,19 +3415,19 @@
         <v>182153</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>157899</v>
+        <v>158199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>211259</v>
+        <v>209177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1431886734244109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1241229170234818</v>
+        <v>0.1243588019798315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.166069094657207</v>
+        <v>0.164431964040556</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>480135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>467030</v>
+        <v>468693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>489300</v>
+        <v>489501</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9403426640101841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9146765084138693</v>
+        <v>0.917933800640841</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9582925110992733</v>
+        <v>0.9586859540589191</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>561</v>
@@ -3465,19 +3465,19 @@
         <v>609830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>586831</v>
+        <v>584095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>633316</v>
+        <v>630387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.800804005742613</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7706025250409617</v>
+        <v>0.7670103253446949</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8316445485140675</v>
+        <v>0.8277982787532493</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1018</v>
@@ -3486,19 +3486,19 @@
         <v>1089965</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1060859</v>
+        <v>1062941</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1114219</v>
+        <v>1113919</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8568113265755891</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8339309053427931</v>
+        <v>0.8355680359594443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8758770829765182</v>
+        <v>0.8756411980201686</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>6720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2771</v>
+        <v>2834</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14483</v>
+        <v>14434</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02517828877264879</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01038163239907785</v>
+        <v>0.01062057599955545</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05426793984359073</v>
+        <v>0.05408534229844941</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>184</v>
@@ -3611,19 +3611,19 @@
         <v>197176</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>171247</v>
+        <v>170227</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>224103</v>
+        <v>221290</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1777397804269466</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1543668816513303</v>
+        <v>0.1534474688271198</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2020130187031673</v>
+        <v>0.1994768850984085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>190</v>
@@ -3632,19 +3632,19 @@
         <v>203895</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>177467</v>
+        <v>178875</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>233594</v>
+        <v>232384</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1481547469512402</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1289510620350472</v>
+        <v>0.129974186206886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1697344740384987</v>
+        <v>0.1688552357117895</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>260162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252399</v>
+        <v>252448</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264111</v>
+        <v>264048</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9748217112273512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9457320601564092</v>
+        <v>0.9459146577015505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.989618367600922</v>
+        <v>0.9893794240004445</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>860</v>
@@ -3682,19 +3682,19 @@
         <v>912175</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>885248</v>
+        <v>888061</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>938104</v>
+        <v>939124</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8222602195730534</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7979869812968325</v>
+        <v>0.8005231149015914</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8456331183486694</v>
+        <v>0.8465525311728802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1119</v>
@@ -3703,19 +3703,19 @@
         <v>1172338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1142639</v>
+        <v>1143849</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1198766</v>
+        <v>1197358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8518452530487598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8302655259615012</v>
+        <v>0.8311447642882105</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8710489379649519</v>
+        <v>0.8700258137931139</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>225670</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195132</v>
+        <v>196247</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258913</v>
+        <v>259349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06594856137487558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05702431776733159</v>
+        <v>0.05734999844291108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07566335877170935</v>
+        <v>0.0757906432254859</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>516</v>
@@ -3828,19 +3828,19 @@
         <v>553856</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>510978</v>
+        <v>507176</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>596165</v>
+        <v>595387</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1560102632539427</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1439324405513464</v>
+        <v>0.1428613122179271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1679278655498239</v>
+        <v>0.1677088769554883</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>717</v>
@@ -3849,19 +3849,19 @@
         <v>779526</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>725555</v>
+        <v>727026</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>832105</v>
+        <v>840840</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1118075269144012</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1040664220368457</v>
+        <v>0.1042774293055512</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.11934895410376</v>
+        <v>0.1206018439284166</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3196240</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3162997</v>
+        <v>3162561</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3226778</v>
+        <v>3225663</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9340514386251244</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9243366412282908</v>
+        <v>0.924209356774514</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9429756822326684</v>
+        <v>0.9426500015570887</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2774</v>
@@ -3899,19 +3899,19 @@
         <v>2996269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2953960</v>
+        <v>2954738</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3039147</v>
+        <v>3042949</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8439897367460573</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.832072134450176</v>
+        <v>0.8322911230445117</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8560675594486535</v>
+        <v>0.8571386877820728</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5778</v>
@@ -3920,19 +3920,19 @@
         <v>6192509</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6139930</v>
+        <v>6131195</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6246480</v>
+        <v>6245009</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8881924730855988</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.88065104589624</v>
+        <v>0.8793981560715834</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8959335779631542</v>
+        <v>0.8957225706944487</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>26170</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17442</v>
+        <v>18233</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38563</v>
+        <v>39198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06098961183464981</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0406486245740866</v>
+        <v>0.04249290926946057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08987200502618357</v>
+        <v>0.09135053153056415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -4287,19 +4287,19 @@
         <v>28455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19175</v>
+        <v>19299</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40748</v>
+        <v>39944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0819885719733579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05524947378202102</v>
+        <v>0.05560692589364753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1174120343907605</v>
+        <v>0.1150955098520751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -4308,19 +4308,19 @@
         <v>54625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41064</v>
+        <v>39977</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70224</v>
+        <v>70109</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07037931884608779</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05290708740421314</v>
+        <v>0.05150707507723321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09047729235371782</v>
+        <v>0.09032918344096061</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>402922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>390529</v>
+        <v>389894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>411650</v>
+        <v>410859</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9390103881653502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9101279949738167</v>
+        <v>0.908649468469435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9593513754259134</v>
+        <v>0.9575070907305394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -4358,19 +4358,19 @@
         <v>318600</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306307</v>
+        <v>307111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327880</v>
+        <v>327756</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9180114280266422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8825879656092391</v>
+        <v>0.8849044901479246</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9447505262179788</v>
+        <v>0.9443930741063524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>678</v>
@@ -4379,19 +4379,19 @@
         <v>721522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705923</v>
+        <v>706038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>735083</v>
+        <v>736170</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9296206811539122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9095227076462822</v>
+        <v>0.9096708165590394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9470929125957869</v>
+        <v>0.9484929249227668</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>20924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12911</v>
+        <v>12871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31057</v>
+        <v>31570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05546763262527578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03422681397923006</v>
+        <v>0.03411873637759347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0823303923022649</v>
+        <v>0.08368872418402327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -4504,19 +4504,19 @@
         <v>23421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15407</v>
+        <v>15604</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36303</v>
+        <v>34941</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0629148101014624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04138523207941543</v>
+        <v>0.04191466638247729</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09751765840808188</v>
+        <v>0.09385903763491661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -4525,19 +4525,19 @@
         <v>44345</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33365</v>
+        <v>31464</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60166</v>
+        <v>61257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0591666107777174</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04451667434357289</v>
+        <v>0.04197942141770368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08027465040290202</v>
+        <v>0.08173037096879068</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>356303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>346170</v>
+        <v>345657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364316</v>
+        <v>364356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9445323673747242</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9176696076977351</v>
+        <v>0.9163112758159767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9657731860207699</v>
+        <v>0.9658812636224064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>331</v>
@@ -4575,19 +4575,19 @@
         <v>348852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>335970</v>
+        <v>337332</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356866</v>
+        <v>356669</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9370851898985376</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9024823415919184</v>
+        <v>0.9061409623650835</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9586147679205849</v>
+        <v>0.9580853336175227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>665</v>
@@ -4596,19 +4596,19 @@
         <v>705155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>689334</v>
+        <v>688243</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>716135</v>
+        <v>718036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9408333892222827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9197253495970975</v>
+        <v>0.9182696290312088</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9554833256564269</v>
+        <v>0.9580205785822961</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>31148</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21667</v>
+        <v>20809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43568</v>
+        <v>42917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05968063631685024</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.041513867129331</v>
+        <v>0.03987138237921976</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08347659364473767</v>
+        <v>0.08223005879407969</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -4721,19 +4721,19 @@
         <v>29287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19489</v>
+        <v>20572</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39913</v>
+        <v>40979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1762966155216487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1173141247525838</v>
+        <v>0.1238369996070382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2402647119705453</v>
+        <v>0.2466769954385775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -4742,19 +4742,19 @@
         <v>60435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47182</v>
+        <v>46658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78420</v>
+        <v>76170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08783695304804194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06857495671397401</v>
+        <v>0.06781326808272863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1139761842843493</v>
+        <v>0.1107066241401161</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>490766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>478346</v>
+        <v>478997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500247</v>
+        <v>501105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9403193636831497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9165234063552619</v>
+        <v>0.9177699412059204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9584861328706686</v>
+        <v>0.9601286176207803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -4792,19 +4792,19 @@
         <v>136836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126210</v>
+        <v>125144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146634</v>
+        <v>145551</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8237033844783513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7597352880294547</v>
+        <v>0.7533230045614225</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8826858752474163</v>
+        <v>0.8761630003929618</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>599</v>
@@ -4813,19 +4813,19 @@
         <v>627601</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>609616</v>
+        <v>611866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640854</v>
+        <v>641378</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.912163046951958</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8860238157156505</v>
+        <v>0.8892933758598837</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9314250432860256</v>
+        <v>0.9321867319172712</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>80780</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64283</v>
+        <v>64845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99929</v>
+        <v>102253</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07026574714727166</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05591621643100125</v>
+        <v>0.05640479216803099</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08692187977465861</v>
+        <v>0.08894397006003413</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -4938,19 +4938,19 @@
         <v>108297</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88820</v>
+        <v>89277</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129764</v>
+        <v>127629</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1311294577356032</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1075458475729914</v>
+        <v>0.108099736434388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1571229076332851</v>
+        <v>0.154538299409873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -4959,19 +4959,19 @@
         <v>189077</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163560</v>
+        <v>162815</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>218830</v>
+        <v>215007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09571019522151059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08279353699497362</v>
+        <v>0.08241648386798918</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1107713565659185</v>
+        <v>0.1088359203218005</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1068858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1049709</v>
+        <v>1047385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1085355</v>
+        <v>1084793</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9297342528527284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9130781202253414</v>
+        <v>0.9110560299399656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9440837835689988</v>
+        <v>0.9435952078319689</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>698</v>
@@ -5009,19 +5009,19 @@
         <v>717579</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>696112</v>
+        <v>698247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>737056</v>
+        <v>736599</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8688705422643968</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8428770923667149</v>
+        <v>0.845461700590127</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8924541524270087</v>
+        <v>0.891900263565612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1723</v>
@@ -5030,19 +5030,19 @@
         <v>1786437</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1756684</v>
+        <v>1760507</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1811954</v>
+        <v>1812699</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9042898047784894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8892286434340814</v>
+        <v>0.8911640796781995</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9172064630050263</v>
+        <v>0.9175835161320108</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>48597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36644</v>
+        <v>36633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65525</v>
+        <v>63546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07829386171251358</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05903619150227404</v>
+        <v>0.05901819903039925</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1055647512091494</v>
+        <v>0.1023764371806372</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -5155,19 +5155,19 @@
         <v>161218</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>138221</v>
+        <v>140532</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>184619</v>
+        <v>186449</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.218379757862708</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1872292350373319</v>
+        <v>0.1903596485155291</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2500790738105351</v>
+        <v>0.2525570637984692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -5176,19 +5176,19 @@
         <v>209815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>184489</v>
+        <v>185898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>236450</v>
+        <v>238180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1543949615935643</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1357584179855958</v>
+        <v>0.1367956151541602</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1739943018867459</v>
+        <v>0.1752680080960019</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>572109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>555181</v>
+        <v>557160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>584062</v>
+        <v>584073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9217061382874864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8944352487908496</v>
+        <v>0.8976235628193627</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9409638084977257</v>
+        <v>0.9409818009696007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>550</v>
@@ -5226,19 +5226,19 @@
         <v>577026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>553625</v>
+        <v>551795</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>600023</v>
+        <v>597712</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.781620242137292</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7499209261894648</v>
+        <v>0.7474429362015308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.812770764962668</v>
+        <v>0.8096403514844708</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1098</v>
@@ -5247,19 +5247,19 @@
         <v>1149135</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1122500</v>
+        <v>1120770</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1174461</v>
+        <v>1173052</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8456050384064357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8260056981132536</v>
+        <v>0.8247319919039987</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8642415820144037</v>
+        <v>0.8632043848458398</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>5078</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1861</v>
+        <v>1951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11622</v>
+        <v>11423</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01768465724246468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006479427895633094</v>
+        <v>0.006794036373650918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04047519219972033</v>
+        <v>0.03977987540247271</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>163</v>
@@ -5372,19 +5372,19 @@
         <v>186444</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>159765</v>
+        <v>162921</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213821</v>
+        <v>213677</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1723106889098998</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1476533544377545</v>
+        <v>0.1505703532186315</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1976122742398137</v>
+        <v>0.1974787651592213</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -5393,19 +5393,19 @@
         <v>191523</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>165306</v>
+        <v>166268</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>221531</v>
+        <v>221387</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1398821996254692</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1207347081553823</v>
+        <v>0.1214367738675722</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1617995172269028</v>
+        <v>0.1616939746755661</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>282067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275523</v>
+        <v>275722</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285284</v>
+        <v>285194</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9823153427575353</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9595248078002804</v>
+        <v>0.9602201245975278</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9935205721043671</v>
+        <v>0.9932059636263492</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>829</v>
@@ -5443,19 +5443,19 @@
         <v>895581</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>868204</v>
+        <v>868348</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>922260</v>
+        <v>919104</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8276893110901001</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8023877257601864</v>
+        <v>0.8025212348407782</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8523466455622453</v>
+        <v>0.8494296467813686</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1096</v>
@@ -5464,19 +5464,19 @@
         <v>1177647</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1147639</v>
+        <v>1147783</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1203864</v>
+        <v>1202902</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8601178003745308</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8382004827730967</v>
+        <v>0.8383060253244338</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8792652918446177</v>
+        <v>0.8785632261324278</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>212698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>187313</v>
+        <v>187072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>242495</v>
+        <v>241323</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06282202226290388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0553244311745118</v>
+        <v>0.05525322307343974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07162290103381166</v>
+        <v>0.07127669916313599</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>485</v>
@@ -5589,19 +5589,19 @@
         <v>537122</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>495339</v>
+        <v>493932</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>584296</v>
+        <v>581271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1520903347178419</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1402593515153544</v>
+        <v>0.1398608076306641</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1654482578241824</v>
+        <v>0.1645915601349389</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>691</v>
@@ -5610,19 +5610,19 @@
         <v>749820</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>699439</v>
+        <v>703430</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>808058</v>
+        <v>807652</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1083974319399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1011142228669145</v>
+        <v>0.1016912120488605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1168166645962891</v>
+        <v>0.1167579789959509</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3173024</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3143227</v>
+        <v>3144399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3198409</v>
+        <v>3198650</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9371779777370961</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9283770989661884</v>
+        <v>0.9287233008368639</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9446755688254882</v>
+        <v>0.9447467769265602</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2841</v>
@@ -5660,19 +5660,19 @@
         <v>2994474</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2947300</v>
+        <v>2950325</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3036257</v>
+        <v>3037664</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8479096652821581</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8345517421758175</v>
+        <v>0.8354084398650611</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8597406484846456</v>
+        <v>0.8601391923693359</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5859</v>
@@ -5681,19 +5681,19 @@
         <v>6167498</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6109260</v>
+        <v>6109666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6217879</v>
+        <v>6213888</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8916025680601001</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8831833354037114</v>
+        <v>0.8832420210040492</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8988857771330855</v>
+        <v>0.8983087879511398</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>44279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33664</v>
+        <v>33559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57239</v>
+        <v>57691</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0804173487373525</v>
+        <v>0.08041734873735251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06113880814432703</v>
+        <v>0.06094782928786453</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1039543380999515</v>
+        <v>0.1047743201379956</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -6048,19 +6048,19 @@
         <v>45762</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36207</v>
+        <v>35784</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57038</v>
+        <v>58692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09369490783085686</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07413287879010637</v>
+        <v>0.07326523115293658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1167831467517505</v>
+        <v>0.1201697124666092</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -6069,19 +6069,19 @@
         <v>90041</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75233</v>
+        <v>74189</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108500</v>
+        <v>107060</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08665866004778638</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0724067343430423</v>
+        <v>0.07140178891412695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1044242785353593</v>
+        <v>0.1030388482282807</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>506339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>493379</v>
+        <v>492927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>516954</v>
+        <v>517059</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9195826512626475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8960456619000485</v>
+        <v>0.8952256798620044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9388611918556731</v>
+        <v>0.9390521707121355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>617</v>
@@ -6119,19 +6119,19 @@
         <v>442649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>431373</v>
+        <v>429719</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452204</v>
+        <v>452627</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9063050921691433</v>
+        <v>0.9063050921691431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8832168532482495</v>
+        <v>0.8798302875333907</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9258671212098937</v>
+        <v>0.9267347688470633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1119</v>
@@ -6140,19 +6140,19 @@
         <v>948988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>930529</v>
+        <v>931969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>963796</v>
+        <v>964840</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9133413399522137</v>
+        <v>0.9133413399522136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8955757214646408</v>
+        <v>0.8969611517717194</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.927593265656958</v>
+        <v>0.9285982110858729</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>31712</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22941</v>
+        <v>22618</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43567</v>
+        <v>44307</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06562775448572146</v>
+        <v>0.06562775448572145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04747672818121625</v>
+        <v>0.04680804900684923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09016130752619096</v>
+        <v>0.09169311649614968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -6265,19 +6265,19 @@
         <v>54807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43980</v>
+        <v>44352</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66173</v>
+        <v>67403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1295233159001334</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1039368642187797</v>
+        <v>0.1048151812216669</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1563834349163991</v>
+        <v>0.1592913652637418</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -6286,19 +6286,19 @@
         <v>86519</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71666</v>
+        <v>72385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102201</v>
+        <v>103007</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09545817434496721</v>
+        <v>0.0954581743449672</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07907091021935941</v>
+        <v>0.07986389671388358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1127605582318259</v>
+        <v>0.1136499549183027</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>451500</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>439645</v>
+        <v>438905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460271</v>
+        <v>460594</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9343722455142786</v>
+        <v>0.9343722455142784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.909838692473809</v>
+        <v>0.9083068835038504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9525232718187838</v>
+        <v>0.9531919509931508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>505</v>
@@ -6336,19 +6336,19 @@
         <v>368336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356970</v>
+        <v>355740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>379163</v>
+        <v>378791</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8704766840998666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8436165650836007</v>
+        <v>0.8407086347362571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8960631357812204</v>
+        <v>0.8951848187783323</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>949</v>
@@ -6357,19 +6357,19 @@
         <v>819836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>804154</v>
+        <v>803348</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>834689</v>
+        <v>833970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9045418256550328</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8872394417681739</v>
+        <v>0.8863500450816973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9209290897806406</v>
+        <v>0.9201361032861165</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>48726</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36339</v>
+        <v>37179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63238</v>
+        <v>64563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1033172331573909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0770530490894695</v>
+        <v>0.07883428445143098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1340900770651621</v>
+        <v>0.1368985295139526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -6482,19 +6482,19 @@
         <v>38558</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30360</v>
+        <v>30664</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47839</v>
+        <v>48859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2056450567040044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.161923922360851</v>
+        <v>0.1635445487900137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2551472684085499</v>
+        <v>0.2605840988006142</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -6503,19 +6503,19 @@
         <v>87284</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73203</v>
+        <v>72722</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103039</v>
+        <v>105577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1324265141567623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1110641495541984</v>
+        <v>0.1103330704310837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1563307985598919</v>
+        <v>0.1601812619105376</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>422886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408374</v>
+        <v>407049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>435273</v>
+        <v>434433</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8966827668426091</v>
+        <v>0.8966827668426089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8659099229348373</v>
+        <v>0.8631014704860475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9229469509105305</v>
+        <v>0.921165715548569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -6553,19 +6553,19 @@
         <v>148939</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139658</v>
+        <v>138638</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157137</v>
+        <v>156833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7943549432959957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.74485273159145</v>
+        <v>0.7394159011993864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8380760776391494</v>
+        <v>0.8364554512099864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>656</v>
@@ -6574,19 +6574,19 @@
         <v>571825</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>556070</v>
+        <v>553532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>585906</v>
+        <v>586387</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8675734858432377</v>
+        <v>0.8675734858432378</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.843669201440108</v>
+        <v>0.8398187380894624</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8889358504458017</v>
+        <v>0.8896669295689161</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>106104</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89163</v>
+        <v>86651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124350</v>
+        <v>124184</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09374463019284134</v>
+        <v>0.09374463019284132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07877687557370053</v>
+        <v>0.07655755507100651</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1098646915126905</v>
+        <v>0.1097180226934344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -6699,19 +6699,19 @@
         <v>133334</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116413</v>
+        <v>114886</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151225</v>
+        <v>151060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1548212830214075</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1351737393479341</v>
+        <v>0.1334001909678575</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1755957673467678</v>
+        <v>0.1754044045961368</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>348</v>
@@ -6720,19 +6720,19 @@
         <v>239438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>217060</v>
+        <v>216156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>266209</v>
+        <v>265118</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1201362410080761</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1089084734711602</v>
+        <v>0.108454799469334</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1335681358468234</v>
+        <v>0.1330211991296103</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1025739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1007493</v>
+        <v>1007659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1042680</v>
+        <v>1045192</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9062553698071586</v>
+        <v>0.9062553698071587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8901353084873096</v>
+        <v>0.8902819773065657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9212231244262994</v>
+        <v>0.9234424449289934</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1014</v>
@@ -6770,19 +6770,19 @@
         <v>727877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709986</v>
+        <v>710151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>744798</v>
+        <v>746325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8451787169785925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8244042326532321</v>
+        <v>0.8245955954038634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.864826260652066</v>
+        <v>0.8665998090321425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2000</v>
@@ -6791,19 +6791,19 @@
         <v>1753616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1726845</v>
+        <v>1727936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1775994</v>
+        <v>1776898</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8798637589919237</v>
+        <v>0.879863758991924</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8664318641531767</v>
+        <v>0.8669788008703897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8910915265288398</v>
+        <v>0.8915452005306661</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>57992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45313</v>
+        <v>44610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74118</v>
+        <v>73327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1021055947478201</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07978163043464759</v>
+        <v>0.07854290999426351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1304968726007456</v>
+        <v>0.1291045516704407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>353</v>
@@ -6916,19 +6916,19 @@
         <v>202564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>183655</v>
+        <v>182185</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224275</v>
+        <v>221673</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2438037579395823</v>
+        <v>0.2438037579395822</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2210447757884495</v>
+        <v>0.2192754163485237</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2699348832442955</v>
+        <v>0.2668026644193605</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>419</v>
@@ -6937,19 +6937,19 @@
         <v>260557</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>235337</v>
+        <v>238980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287663</v>
+        <v>288843</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1862697182524697</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1682401015210694</v>
+        <v>0.1708447953245204</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2056477442120589</v>
+        <v>0.2064912975538732</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>509972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>493846</v>
+        <v>494637</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>522651</v>
+        <v>523354</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8978944052521799</v>
+        <v>0.8978944052521797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8695031273992544</v>
+        <v>0.8708954483295593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9202183695653525</v>
+        <v>0.9214570900057374</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>937</v>
@@ -6987,19 +6987,19 @@
         <v>628286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>606575</v>
+        <v>609177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>647195</v>
+        <v>648665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7561962420604178</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7300651167557045</v>
+        <v>0.7331973355806397</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7789552242115504</v>
+        <v>0.7807245836514765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1418</v>
@@ -7008,19 +7008,19 @@
         <v>1138257</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1111151</v>
+        <v>1109971</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1163477</v>
+        <v>1159834</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8137302817475303</v>
+        <v>0.8137302817475301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7943522557879414</v>
+        <v>0.7935087024461269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8317598984789307</v>
+        <v>0.8291552046754797</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>13803</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6983</v>
+        <v>6937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25593</v>
+        <v>27148</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05818513558788514</v>
+        <v>0.05818513558788515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02943611151221039</v>
+        <v>0.02924042052240661</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1078832741908094</v>
+        <v>0.114440240793313</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>273</v>
@@ -7133,19 +7133,19 @@
         <v>166267</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>147491</v>
+        <v>147144</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>185636</v>
+        <v>186922</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1969337385609359</v>
+        <v>0.196933738560936</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1746943174711585</v>
+        <v>0.1742833281687924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2198741892514378</v>
+        <v>0.2213978034272831</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>285</v>
@@ -7154,19 +7154,19 @@
         <v>180071</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159031</v>
+        <v>158975</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>204381</v>
+        <v>204268</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1664993855791369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1470451486909096</v>
+        <v>0.1469938252524402</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1889776611423878</v>
+        <v>0.1888733566228357</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>223425</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211635</v>
+        <v>210080</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230245</v>
+        <v>230291</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9418148644121148</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8921167258091902</v>
+        <v>0.8855597592066876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9705638884877895</v>
+        <v>0.9707595794775934</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>886</v>
@@ -7204,19 +7204,19 @@
         <v>678014</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>658645</v>
+        <v>657359</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>696790</v>
+        <v>697137</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8030662614390641</v>
+        <v>0.8030662614390642</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7801258107485624</v>
+        <v>0.778602196572717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8253056825288415</v>
+        <v>0.8257166718312077</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>986</v>
@@ -7225,19 +7225,19 @@
         <v>901438</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>877128</v>
+        <v>877241</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>922478</v>
+        <v>922534</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8335006144208631</v>
+        <v>0.8335006144208632</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8110223388576118</v>
+        <v>0.8111266433771642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8529548513090905</v>
+        <v>0.8530061747475597</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>302617</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>270116</v>
+        <v>269049</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>335853</v>
+        <v>336763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08790665819457251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07846560042145455</v>
+        <v>0.07815579002881951</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09756141083944039</v>
+        <v>0.09782568828831574</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1061</v>
@@ -7350,19 +7350,19 @@
         <v>641292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>605760</v>
+        <v>606085</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>679235</v>
+        <v>683068</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1764023649425125</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1666284974635993</v>
+        <v>0.16671778318706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1868394092050145</v>
+        <v>0.1878937241805495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1416</v>
@@ -7371,19 +7371,19 @@
         <v>943908</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>894036</v>
+        <v>898695</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>996292</v>
+        <v>998590</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1333605484499386</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1263143511056922</v>
+        <v>0.1269725619733138</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1407615376065129</v>
+        <v>0.1410862886011362</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3139859</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3106623</v>
+        <v>3105713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3172360</v>
+        <v>3173427</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9120933418054274</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9024385891605595</v>
+        <v>0.9021743117116843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9215343995785454</v>
+        <v>0.9218442099711804</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4183</v>
@@ -7421,19 +7421,19 @@
         <v>2994101</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2956158</v>
+        <v>2952325</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3029633</v>
+        <v>3029308</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8235976350574876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8131605907949855</v>
+        <v>0.8121062758194508</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8333715025364004</v>
+        <v>0.83328221681294</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7128</v>
@@ -7442,19 +7442,19 @@
         <v>6133961</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6081577</v>
+        <v>6079279</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6183833</v>
+        <v>6179174</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8666394515500615</v>
+        <v>0.8666394515500614</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8592384623934871</v>
+        <v>0.8589137113988637</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8736856488943077</v>
+        <v>0.8730274380266861</v>
       </c>
     </row>
     <row r="24">
